--- a/biology/Zoologie/Black_Water_(film)/Black_Water_(film).xlsx
+++ b/biology/Zoologie/Black_Water_(film)/Black_Water_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Black Water est un film australien réalisé par David Nerlich et Andrew Traucki, sorti en 2007.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grace, son petit ami Adam et sa sœur cadette Lee décident de partir en vacances dans le nord de l'Australie. Partis pêcher dans la mangrove, leur embarcation chavire brusquement. Après la disparition de leur guide, ils comprennent qu'ils viennent d'être attaqués par un crocodile et se réfugient dans un arbre. Assiégés par le reptile et ne voyant pas les secours arriver, leurs chances de survie s'amenuisent au fil du temps.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Black Water
 Réalisation : David Nerlich et Andrew Traucki
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Diana Glenn : Grace
 Maeve Dermody : Lee
@@ -621,10 +639,12 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Black Water est sorti la même année que Solitaire (2007), un autre film d'horreur australien mettant en scène un groupe de touristes assiégés par un crocodile.
-Ce film est basé sur une histoire vraie[1].</t>
+Ce film est basé sur une histoire vraie.</t>
         </is>
       </c>
     </row>
@@ -652,7 +672,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix du meilleur réalisateur et de la meilleure photographie, lors du Festival du film underground de Melbourne en 2007.</t>
         </is>
